--- a/[IT-002-001]結合テスト結果_USR_F001_S001 ログイン画面.xlsx
+++ b/[IT-002-001]結合テスト結果_USR_F001_S001 ログイン画面.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820" activeTab="14"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="01,02" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,13 @@
     <sheet name=" 18" sheetId="13" r:id="rId16"/>
     <sheet name="19" sheetId="14" r:id="rId17"/>
     <sheet name="20" sheetId="15" r:id="rId18"/>
-    <sheet name="04 (14)" sheetId="16" r:id="rId19"/>
-    <sheet name="04 (15)" sheetId="17" r:id="rId20"/>
-    <sheet name="04 (16)" sheetId="18" r:id="rId21"/>
-    <sheet name="04 (17)" sheetId="19" r:id="rId22"/>
+    <sheet name="21" sheetId="16" r:id="rId19"/>
+    <sheet name="22" sheetId="17" r:id="rId20"/>
+    <sheet name="２３" sheetId="18" r:id="rId21"/>
+    <sheet name="２４" sheetId="19" r:id="rId22"/>
+    <sheet name="25～26" sheetId="20" r:id="rId23"/>
+    <sheet name="04 (19)" sheetId="21" r:id="rId24"/>
+    <sheet name="04 (20)" sheetId="22" r:id="rId25"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -175,12 +178,72 @@
   <si>
     <t>パスワードを全角、半角で１００文字を超えて入力できる</t>
   </si>
+  <si>
+    <t>＜事前準備＞
+利用者テーブルに、72文字のパスワードの利用者を登録しておく
+＜手順＞
+パスワードに、事前準備した72文字を入力し、更に72文字を超えて入力し、｢ログイン｣ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>パスワードに、事前準備した72文字を入力し、更に72文字を超えて入力し、｢ログイン｣ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>未入力の状態で、｢ログイン｣ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>ユーザIDが未入力の状態で、｢ログイン｣ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>パスワードが未入力の状態で、｢ログイン｣ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>＜事前準備＞
+利用者テーブルに、任意のユーザID、パスワードの利用者を登録しておく
+＜手順＞
+ユーザID、パスワードに、事前準備したユーザID、パスワードを入力し、｢ログイン｣ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>ユーザID、パスワードに、事前準備したユーザID、パスワードを入力し、｢ログイン｣ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>＜事前準備＞
+ログイン後、｢ログアウト｣リンクをクリックする
+＜手順＞
+ユーザIDの状態を確認する</t>
+  </si>
+  <si>
+    <t>ログイン後、｢ログアウト｣リンクをクリックする、ユーザIDの状態を確認する</t>
+  </si>
+  <si>
+    <t>～26</t>
+  </si>
+  <si>
+    <t>25～26</t>
+  </si>
+  <si>
+    <t>ログイン後、｢ログアウト｣リンクをクリックする、パスワードの状態を確認する</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +277,15 @@
       <charset val="128"/>
       <family val="3"/>
     </font>
+    <font>
+      <name val="游ゴシック"/>
+      <color rgb="FF454545"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -223,7 +295,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -355,11 +427,108 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+    </border>
+    <border diagonalDown="false">
+      <left style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border diagonalDown="false">
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment/>
@@ -456,6 +625,114 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="22" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="23" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="22" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="23" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="22" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="25" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="25" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="26" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="26" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="27" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="28" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="28" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="29" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="31" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="32" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="33" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="33" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="34" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="17" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="17" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="35" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="38" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="38" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1053,6 +1330,366 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="11258550" cy="5362575"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="600075"/>
+          <a:ext cx="11258550" cy="5362575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9001125" cy="4581525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="295275" y="6953250"/>
+          <a:ext cx="9001125" cy="4581525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="10353675" cy="5314950"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="333375" y="12734925"/>
+          <a:ext cx="10353675" cy="5314950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="11868150" cy="6172200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="7239000"/>
+          <a:ext cx="11868150" cy="6172200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="10715625" cy="5562600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285750" y="581025"/>
+          <a:ext cx="10715625" cy="5562600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="11591925" cy="6019800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="314325" y="733425"/>
+          <a:ext cx="11591925" cy="6019800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="11239500" cy="5829300"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="8401050"/>
+          <a:ext cx="11239500" cy="5829300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="12096750" cy="3876675"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="600075"/>
+          <a:ext cx="12096750" cy="3876675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="11296650" cy="5772150"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="5191125"/>
+          <a:ext cx="11296650" cy="5772150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="11477625" cy="5924550"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266700" y="12201525"/>
+          <a:ext cx="11477625" cy="5924550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -1115,6 +1752,79 @@
         <a:xfrm>
           <a:off x="1219200" y="7753350"/>
           <a:ext cx="8810625" cy="4972050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="11153775" cy="5762625"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="952500"/>
+          <a:ext cx="11153775" cy="5762625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="11258550" cy="5829300"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266700" y="8582025"/>
+          <a:ext cx="11258550" cy="5829300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2098,7 +2808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A91" tabSelected="true">
+    <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="G115" activeCellId="0" sqref="G115"/>
     </sheetView>
   </sheetViews>
@@ -2127,6 +2837,274 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A58">
+      <selection activeCell="E73" activeCellId="0" sqref="E73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0" defaultColWidth="9.14063"/>
+  <cols>
+    <col min="1" max="16384" width="9.14063" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:M2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A37">
+      <selection activeCell="C53" activeCellId="0" sqref="C53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0" defaultColWidth="9.14063"/>
+  <cols>
+    <col min="1" max="16384" width="9.14063" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A31">
+      <selection activeCell="D56" activeCellId="0" sqref="D56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0" defaultColWidth="9.14063"/>
+  <cols>
+    <col min="1" max="16384" width="9.14063" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A55">
+      <selection activeCell="C69" activeCellId="0" sqref="C69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0" defaultColWidth="9.14063"/>
+  <cols>
+    <col min="1" max="16384" width="9.14063" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="67"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:N2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A4">
+      <selection activeCell="K2" activeCellId="0" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A34" tabSelected="true">
+      <selection activeCell="A3" activeCellId="0" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0" defaultColWidth="9.14063"/>
+  <cols>
+    <col min="1" max="16384" width="9.14063" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="68">
+        <v>26</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2152,7 +3130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2175,87 +3153,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A10">
-      <selection activeCell="G23" activeCellId="0" sqref="G23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0" defaultColWidth="9.14063"/>
-  <cols>
-    <col min="1" max="16384" width="9.14063" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A10">
-      <selection activeCell="G23" activeCellId="0" sqref="G23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0" defaultColWidth="9.14063"/>
-  <cols>
-    <col min="1" max="16384" width="9.14063" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A4">
-      <selection activeCell="K2" activeCellId="0" sqref="K2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/[IT-002-001]結合テスト結果_USR_F001_S001 ログイン画面.xlsx
+++ b/[IT-002-001]結合テスト結果_USR_F001_S001 ログイン画面.xlsx
@@ -1,46 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hristo.tentchev.OFFICE-SF\Desktop\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\am\Documents\git\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820" activeTab="19"/>
+    <workbookView xWindow="480" yWindow="72" windowWidth="18192" windowHeight="11820" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="01,02" sheetId="1" r:id="rId1"/>
     <sheet name="03" sheetId="2" r:id="rId2"/>
     <sheet name="04" sheetId="3" r:id="rId3"/>
-    <sheet name="05" sheetId="4" r:id="rId7"/>
-    <sheet name="06" sheetId="5" r:id="rId8"/>
-    <sheet name="07～11" sheetId="6" r:id="rId9"/>
-    <sheet name="12" sheetId="7" r:id="rId10"/>
-    <sheet name="13" sheetId="8" r:id="rId11"/>
-    <sheet name="14" sheetId="9" r:id="rId12"/>
-    <sheet name="15" sheetId="10" r:id="rId13"/>
-    <sheet name="16" sheetId="11" r:id="rId14"/>
-    <sheet name="17" sheetId="12" r:id="rId15"/>
-    <sheet name=" 18" sheetId="13" r:id="rId16"/>
-    <sheet name="19" sheetId="14" r:id="rId17"/>
-    <sheet name="20" sheetId="15" r:id="rId18"/>
-    <sheet name="21" sheetId="16" r:id="rId19"/>
-    <sheet name="22" sheetId="17" r:id="rId20"/>
-    <sheet name="２３" sheetId="18" r:id="rId21"/>
-    <sheet name="２４" sheetId="19" r:id="rId22"/>
-    <sheet name="25～26" sheetId="20" r:id="rId23"/>
-    <sheet name="04 (19)" sheetId="21" r:id="rId24"/>
-    <sheet name="04 (20)" sheetId="22" r:id="rId25"/>
+    <sheet name="05" sheetId="4" r:id="rId4"/>
+    <sheet name="06" sheetId="5" r:id="rId5"/>
+    <sheet name="07～11" sheetId="6" r:id="rId6"/>
+    <sheet name="12" sheetId="7" r:id="rId7"/>
+    <sheet name="13" sheetId="8" r:id="rId8"/>
+    <sheet name="14" sheetId="9" r:id="rId9"/>
+    <sheet name="15" sheetId="10" r:id="rId10"/>
+    <sheet name="16" sheetId="11" r:id="rId11"/>
+    <sheet name="17" sheetId="12" r:id="rId12"/>
+    <sheet name=" 18" sheetId="13" r:id="rId13"/>
+    <sheet name="19" sheetId="14" r:id="rId14"/>
+    <sheet name="20" sheetId="15" r:id="rId15"/>
+    <sheet name="21" sheetId="16" r:id="rId16"/>
+    <sheet name="22" sheetId="17" r:id="rId17"/>
+    <sheet name="２３" sheetId="18" r:id="rId18"/>
+    <sheet name="２４" sheetId="19" r:id="rId19"/>
+    <sheet name="25～26" sheetId="20" r:id="rId20"/>
+    <sheet name="04 (19)" sheetId="21" r:id="rId21"/>
+    <sheet name="04 (20)" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
   <si>
     <t>USR_F001_S001 ログイン画面</t>
   </si>
@@ -66,9 +66,6 @@
     <t>04</t>
   </si>
   <si>
-    <t>ユーザーID不正入力で、「」</t>
-  </si>
-  <si>
     <t>ユーザーID不正入力で、「ログイン」ボタンをクリック</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
   </si>
   <si>
     <t>パスワード未入力で、「」</t>
-  </si>
-  <si>
-    <t>ログイン</t>
   </si>
   <si>
     <t>06</t>
@@ -138,9 +132,6 @@
     <t>15</t>
   </si>
   <si>
-    <t>半角、全角、英数字記号、ひらがな、カタカナを入力する</t>
-  </si>
-  <si>
     <t>ユーザID入力フォームに半角、全角、英数字記号、ひらがな、カタカナを入力できる</t>
   </si>
   <si>
@@ -157,9 +148,6 @@
   </si>
   <si>
     <t>18</t>
-  </si>
-  <si>
-    <t>パスワードを途中まで入力しても自動補完されない</t>
   </si>
   <si>
     <t>ログアウト後、再度ログインする際。パスワードを途中まで入力しても自動補完されない</t>
@@ -179,12 +167,6 @@
     <t>パスワードを全角、半角で１００文字を超えて入力できる</t>
   </si>
   <si>
-    <t>＜事前準備＞
-利用者テーブルに、72文字のパスワードの利用者を登録しておく
-＜手順＞
-パスワードに、事前準備した72文字を入力し、更に72文字を超えて入力し、｢ログイン｣ボタンをクリックする</t>
-  </si>
-  <si>
     <t>パスワードに、事前準備した72文字を入力し、更に72文字を超えて入力し、｢ログイン｣ボタンをクリックする</t>
   </si>
   <si>
@@ -192,9 +174,6 @@
   </si>
   <si>
     <t>22</t>
-  </si>
-  <si>
-    <t>未入力の状態で、｢ログイン｣ボタンをクリックする</t>
   </si>
   <si>
     <t>ユーザIDが未入力の状態で、｢ログイン｣ボタンをクリックする</t>
@@ -209,31 +188,13 @@
     <t>24</t>
   </si>
   <si>
-    <t>＜事前準備＞
-利用者テーブルに、任意のユーザID、パスワードの利用者を登録しておく
-＜手順＞
-ユーザID、パスワードに、事前準備したユーザID、パスワードを入力し、｢ログイン｣ボタンをクリックする</t>
-  </si>
-  <si>
     <t>ユーザID、パスワードに、事前準備したユーザID、パスワードを入力し、｢ログイン｣ボタンをクリックする</t>
   </si>
   <si>
     <t>25</t>
   </si>
   <si>
-    <t>＜事前準備＞
-ログイン後、｢ログアウト｣リンクをクリックする
-＜手順＞
-ユーザIDの状態を確認する</t>
-  </si>
-  <si>
     <t>ログイン後、｢ログアウト｣リンクをクリックする、ユーザIDの状態を確認する</t>
-  </si>
-  <si>
-    <t>～26</t>
-  </si>
-  <si>
-    <t>25～26</t>
   </si>
   <si>
     <t>ログイン後、｢ログアウト｣リンクをクリックする、パスワードの状態を確認する</t>
@@ -242,49 +203,62 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF1E1E1E"/>
       <name val="Meiryo UI"/>
-      <color rgb="FF1E1E1E"/>
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF454545"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="游ゴシック"/>
-      <color rgb="FF454545"/>
+      <family val="3"/>
       <charset val="128"/>
-      <family val="3"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF454545"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
     </font>
     <font>
+      <sz val="6"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <name val="游ゴシック"/>
-      <color rgb="FF454545"/>
-      <charset val="128"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -295,7 +269,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -303,440 +277,213 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="none"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <top style="thin"/>
-      <bottom style="none"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="none"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="none"/>
-      <top style="thin"/>
-      <bottom style="none"/>
-    </border>
-    <border diagonalDown="false">
-      <left style="none"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false">
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false">
-      <left style="thin"/>
-      <right style="none"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false">
-      <left style="none"/>
-      <top style="thin"/>
-      <bottom style="none"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false">
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="none"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false">
-      <left style="thin"/>
-      <right style="none"/>
-      <top style="thin"/>
-      <bottom style="none"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="none"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal style="none"/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal style="none"/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
-      <right style="none"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal style="none"/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="none"/>
-      <top style="thin"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
-      <right style="none"/>
-      <top style="thin"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="none"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="none"/>
-      <bottom style="none"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-    </border>
-    <border diagonalDown="false">
-      <left style="thin"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal/>
-    </border>
-    <border diagonalDown="false">
-      <left style="thin"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="none"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border diagonalDown="false">
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalDown="false">
-      <left style="thin"/>
-      <right style="none"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
-      <right style="none"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal style="none"/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
-      <top style="none"/>
-      <bottom style="thin"/>
-      <diagonal style="none"/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="top" horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="top" horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment wrapText="1" vertical="top" horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment wrapText="1" vertical="top" horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment wrapText="1" vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment wrapText="1" vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment wrapText="1" vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment wrapText="1" vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment wrapText="1" vertical="top" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment wrapText="1" vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment wrapText="1" vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment wrapText="1" vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment wrapText="1" vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment wrapText="1" vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="15" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment wrapText="1" vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="16" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment wrapText="1" vertical="top" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="17" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment wrapText="1" vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="18" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment wrapText="1" vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="16" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment wrapText="1" vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="19" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment wrapText="1" vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="20" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment wrapText="1" vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment wrapText="1" vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="22" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment wrapText="1" vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="23" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment wrapText="1" vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment wrapText="1" vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="22" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="23" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="22" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="top" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="25" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="top" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="25" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="26" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="top" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="26" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="27" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="28" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="top" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="28" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="29" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="top" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="31" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="top" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="32" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="33" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="top" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="33" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="34" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="17" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="top" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="17" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="35" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="top" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="top" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="38" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="top" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="38" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="top" horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -763,7 +510,7 @@
     <xdr:ext cx="5686425" cy="3771900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPr id="2" name="図 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -802,7 +549,7 @@
     <xdr:ext cx="9563100" cy="4791075"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPr id="2" name="図 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -826,6 +573,64 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="フレーム 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4465320" y="1394460"/>
+          <a:ext cx="891540" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -841,7 +646,7 @@
     <xdr:ext cx="8801100" cy="4391025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPr id="2" name="図 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -875,7 +680,7 @@
     <xdr:ext cx="9001125" cy="4533900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -909,7 +714,7 @@
     <xdr:ext cx="8753475" cy="4314825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvPr id="4" name="図 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -933,6 +738,288 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="フレーム 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8168640" y="807720"/>
+          <a:ext cx="982980" cy="441960"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="フレーム 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4259580" y="8199120"/>
+          <a:ext cx="2461260" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="下矢印 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3931920" y="5570220"/>
+          <a:ext cx="1584960" cy="1242060"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>670560</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="下矢印 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4137660" y="12473940"/>
+          <a:ext cx="1562100" cy="1455420"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="フレーム 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4168140" y="15323820"/>
+          <a:ext cx="2369820" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -948,7 +1035,7 @@
     <xdr:ext cx="11001375" cy="4610100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPr id="2" name="図 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -982,7 +1069,7 @@
     <xdr:ext cx="11058525" cy="5553075"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1006,6 +1093,122 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フレーム 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2407920" y="3093720"/>
+          <a:ext cx="1844040" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="フレーム 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5318760" y="9250680"/>
+          <a:ext cx="2872740" cy="297180"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1021,7 +1224,7 @@
     <xdr:ext cx="10572750" cy="5314950"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPr id="2" name="図 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1055,7 +1258,7 @@
     <xdr:ext cx="10772775" cy="5457825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1079,6 +1282,176 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フレーム 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9707880" y="1036320"/>
+          <a:ext cx="1104900" cy="434340"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="下矢印 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4495800" y="6888480"/>
+          <a:ext cx="1981200" cy="1653540"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="フレーム 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4922520" y="11277600"/>
+          <a:ext cx="861060" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1094,7 +1467,7 @@
     <xdr:ext cx="10591800" cy="3486150"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPr id="2" name="図 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1128,7 +1501,7 @@
     <xdr:ext cx="10572750" cy="5381625"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1162,7 +1535,7 @@
     <xdr:ext cx="10820400" cy="5600700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvPr id="4" name="図 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1186,6 +1559,230 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="フレーム 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="251460" y="1478280"/>
+          <a:ext cx="1165860" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="下矢印 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4587240" y="5356860"/>
+          <a:ext cx="1386840" cy="830580"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="フレーム 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5090160" y="7574280"/>
+          <a:ext cx="1668780" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="下矢印 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4640580" y="13472160"/>
+          <a:ext cx="1562100" cy="1546860"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1196,12 +1793,12 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>140970</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="8991600" cy="4600575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPr id="2" name="図 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1215,7 +1812,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="219075" y="514350"/>
+          <a:off x="219075" y="598170"/>
           <a:ext cx="8991600" cy="4600575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1235,7 +1832,7 @@
     <xdr:ext cx="11991975" cy="6191250"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1262,14 +1859,14 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:colOff>451485</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="8991600" cy="4181475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvPr id="4" name="図 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1283,7 +1880,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="428625" y="13392150"/>
+          <a:off x="451485" y="16066770"/>
           <a:ext cx="8991600" cy="4181475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1303,7 +1900,7 @@
     <xdr:ext cx="10163175" cy="5229225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvPr id="5" name="図 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1327,6 +1924,516 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="フレーム 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5417820" y="4945380"/>
+          <a:ext cx="472440" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>678180</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="下矢印 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4785360" y="5745480"/>
+          <a:ext cx="1440180" cy="1455420"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="フレーム 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5562600" y="9159240"/>
+          <a:ext cx="3284220" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="下矢印 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3794760" y="14157960"/>
+          <a:ext cx="1630680" cy="1386840"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="フレーム 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="426720" y="16512540"/>
+          <a:ext cx="320040" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="フレーム 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5631180" y="20025360"/>
+          <a:ext cx="563880" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="フレーム 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266700" y="1066800"/>
+          <a:ext cx="312420" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="下矢印 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4541520" y="20612100"/>
+          <a:ext cx="1813560" cy="1638300"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="フレーム 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5097780" y="23972520"/>
+          <a:ext cx="2628900" cy="358140"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1342,7 +2449,7 @@
     <xdr:ext cx="11258550" cy="5362575"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPr id="2" name="図 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1376,7 +2483,7 @@
     <xdr:ext cx="9001125" cy="4581525"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1410,7 +2517,7 @@
     <xdr:ext cx="10353675" cy="5314950"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvPr id="4" name="図 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1449,7 +2556,7 @@
     <xdr:ext cx="11868150" cy="6172200"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPr id="2" name="図 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1483,7 +2590,7 @@
     <xdr:ext cx="10715625" cy="5562600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1522,7 +2629,7 @@
     <xdr:ext cx="11591925" cy="6019800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPr id="2" name="図 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1556,7 +2663,7 @@
     <xdr:ext cx="11239500" cy="5829300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1595,7 +2702,7 @@
     <xdr:ext cx="12096750" cy="3876675"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPr id="2" name="図 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1629,7 +2736,7 @@
     <xdr:ext cx="11296650" cy="5772150"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1663,7 +2770,7 @@
     <xdr:ext cx="11477625" cy="5924550"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvPr id="4" name="図 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1702,7 +2809,7 @@
     <xdr:ext cx="8820150" cy="4953000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPr id="2" name="図 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1736,7 +2843,7 @@
     <xdr:ext cx="8810625" cy="4972050"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1760,6 +2867,120 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フレーム 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5273040" y="1402080"/>
+          <a:ext cx="2461260" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="下矢印 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3611880" y="6545580"/>
+          <a:ext cx="2727960" cy="1996440"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1768,14 +2989,14 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="11153775" cy="5762625"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPr id="2" name="図 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1789,7 +3010,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="228600" y="952500"/>
+          <a:off x="266700" y="1066800"/>
           <a:ext cx="11153775" cy="5762625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1809,7 +3030,7 @@
     <xdr:ext cx="11258550" cy="5829300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1833,6 +3054,176 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>678180</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フレーム 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10287000" y="1295400"/>
+          <a:ext cx="1485900" cy="464820"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="下矢印 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4526280" y="7444740"/>
+          <a:ext cx="2476500" cy="1623060"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="フレーム 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4846320" y="10774680"/>
+          <a:ext cx="3657600" cy="1280160"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1848,7 +3239,7 @@
     <xdr:ext cx="10401300" cy="5467350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPr id="2" name="図 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1882,7 +3273,7 @@
     <xdr:ext cx="10134600" cy="5314950"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1906,6 +3297,120 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フレーム 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5433060" y="1638300"/>
+          <a:ext cx="2971800" cy="464820"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 2664"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="下矢印 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5242560" y="6492240"/>
+          <a:ext cx="2278380" cy="1866900"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1921,7 +3426,7 @@
     <xdr:ext cx="8905875" cy="4676775"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPr id="2" name="図 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1955,7 +3460,7 @@
     <xdr:ext cx="8772525" cy="4610100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1979,6 +3484,120 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フレーム 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4206240" y="1805940"/>
+          <a:ext cx="2362200" cy="373380"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="下矢印 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3863340" y="5768340"/>
+          <a:ext cx="2087880" cy="2065020"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1994,7 +3613,7 @@
     <xdr:ext cx="8601075" cy="4524375"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPr id="2" name="図 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2028,7 +3647,7 @@
     <xdr:ext cx="8534400" cy="4486275"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2052,6 +3671,118 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フレーム 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4107180" y="1905000"/>
+          <a:ext cx="2354580" cy="350520"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="下矢印 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3947160" y="5654040"/>
+          <a:ext cx="2255520" cy="1821180"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2067,7 +3798,7 @@
     <xdr:ext cx="9315450" cy="4905375"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPr id="2" name="図 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2091,6 +3822,302 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="フレーム 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="579120" y="1988820"/>
+          <a:ext cx="876300" cy="373380"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 6378"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フレーム 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4564380" y="2171700"/>
+          <a:ext cx="1074420" cy="411480"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 5093"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="フレーム 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="2484120"/>
+          <a:ext cx="624840" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 9559"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="フレーム 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="2781300"/>
+          <a:ext cx="617220" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="フレーム 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4625340" y="2941320"/>
+          <a:ext cx="952500" cy="434340"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2106,7 +4133,7 @@
     <xdr:ext cx="9001125" cy="4514850"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPr id="2" name="図 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2130,6 +4157,64 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="フレーム 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7673340" y="1036320"/>
+          <a:ext cx="1767840" cy="297180"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2145,7 +4230,7 @@
     <xdr:ext cx="8896350" cy="4457700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPr id="2" name="図 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2169,6 +4254,64 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="フレーム 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7726680" y="1143000"/>
+          <a:ext cx="1653540" cy="236220"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2184,7 +4327,7 @@
     <xdr:ext cx="5219700" cy="6029325"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPr id="2" name="図 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2218,7 +4361,7 @@
     <xdr:ext cx="7153275" cy="4543425"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2242,6 +4385,66 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フレーム 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8823960" y="3368040"/>
+          <a:ext cx="2240280" cy="617220"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 5093"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2542,20 +4745,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="M9" activeCellId="0" sqref="M9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2563,7 +4766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2572,49 +4775,52 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="B12" activeCellId="0" sqref="B11:C12"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B12" sqref="B11:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0" defaultColWidth="9.14063"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="9.14063" style="3"/>
+    <col min="1" max="16384" width="9.09765625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:J2"/>
   </mergeCells>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2622,31 +4828,32 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A43">
-      <selection activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0" defaultColWidth="9.14063"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="9.14063" style="3"/>
+    <col min="1" max="16384" width="9.09765625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>16</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>34</v>
+      <c r="B2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2654,47 +4861,48 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A29">
-      <selection activeCell="G47" activeCellId="0" sqref="G47"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0" defaultColWidth="9.14063"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="9.14063" style="3"/>
+    <col min="1" max="16384" width="9.09765625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="3">
+        <v>32</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:J2"/>
   </mergeCells>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2702,31 +4910,32 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="G72" activeCellId="0" sqref="G72"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0" defaultColWidth="9.14063"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="9.14063" style="3"/>
+    <col min="1" max="16384" width="9.09765625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2734,71 +4943,72 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A46">
-      <selection activeCell="F86" activeCellId="0" sqref="F86"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0" defaultColWidth="9.14063"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="9.14063" style="3"/>
+    <col min="1" max="16384" width="9.09765625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="C3" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28"/>
-    </row>
-    <row r="4">
-      <c r="C4" s="29"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
-    </row>
-    <row r="5">
-      <c r="C5" s="29"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28"/>
-    </row>
-    <row r="6">
-      <c r="C6" s="29"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28"/>
-    </row>
-    <row r="7">
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C4" s="12"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C3:G7"/>
   </mergeCells>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2806,31 +5016,32 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="G115" activeCellId="0" sqref="G115"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0" defaultColWidth="9.14063"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="9.14063" style="3"/>
+    <col min="1" max="16384" width="9.09765625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2838,45 +5049,46 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A58">
-      <selection activeCell="E73" activeCellId="0" sqref="E73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0" defaultColWidth="9.14063"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="9.14063" style="3"/>
+    <col min="1" max="16384" width="9.09765625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
+        <v>42</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:M2"/>
   </mergeCells>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2884,42 +5096,43 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A37">
-      <selection activeCell="C53" activeCellId="0" sqref="C53"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0" defaultColWidth="9.14063"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="9.14063" style="3"/>
+    <col min="1" max="16384" width="9.09765625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:J2"/>
   </mergeCells>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2927,42 +5140,43 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A31">
-      <selection activeCell="D56" activeCellId="0" sqref="D56"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0" defaultColWidth="9.14063"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="9.14063" style="3"/>
+    <col min="1" max="16384" width="9.09765625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:J2"/>
   </mergeCells>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2970,46 +5184,47 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A55">
-      <selection activeCell="C69" activeCellId="0" sqref="C69"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0" defaultColWidth="9.14063"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="9.14063" style="3"/>
+    <col min="1" max="16384" width="9.09765625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="67"/>
+        <v>47</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:N2"/>
   </mergeCells>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3017,20 +5232,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A4">
-      <selection activeCell="K2" activeCellId="0" sqref="K2"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -3039,6 +5254,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3046,59 +5262,60 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A34" tabSelected="true">
-      <selection activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0" defaultColWidth="9.14063"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="9.14063" style="3"/>
+    <col min="1" max="16384" width="9.09765625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="68">
+        <v>49</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3" s="5">
         <v>26</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="7"/>
+      <c r="B3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B3:J3"/>
   </mergeCells>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3106,80 +5323,83 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A10">
-      <selection activeCell="G23" activeCellId="0" sqref="G23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0" defaultColWidth="9.14063"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="9.14063" style="3"/>
+    <col min="1" max="16384" width="9.09765625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A10">
-      <selection activeCell="G23" activeCellId="0" sqref="G23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0" defaultColWidth="9.14063"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="9.14063" style="3"/>
+    <col min="1" max="16384" width="9.09765625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3187,31 +5407,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A37">
-      <selection activeCell="F37" activeCellId="0" sqref="F37"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0" defaultColWidth="9.14063"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="9.14063" style="3"/>
+    <col min="1" max="16384" width="9.09765625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3219,31 +5440,32 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="D38" activeCellId="0" sqref="D38"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0" defaultColWidth="9.14063"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="9.14063" style="3"/>
+    <col min="1" max="16384" width="9.09765625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3251,69 +5473,70 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A10">
-      <selection activeCell="L4" activeCellId="0" sqref="L4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0" defaultColWidth="9.14063"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="9.14063" style="3"/>
+    <col min="1" max="16384" width="9.09765625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3321,31 +5544,32 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0" defaultColWidth="9.14063"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="9.14063" style="3"/>
+    <col min="1" max="16384" width="9.09765625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3353,31 +5577,32 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0" defaultColWidth="9.14063"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="9.14063" style="3"/>
+    <col min="1" max="16384" width="9.09765625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3385,31 +5610,32 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0" defaultColWidth="9.14063"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="9.14063" style="3"/>
+    <col min="1" max="16384" width="9.09765625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
